--- a/11/Data/data.xlsx
+++ b/11/Data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6a74b15c80f35c5/Documents/GitHub/IIPF/11/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C491E8A7-5039-40F2-B4B6-2CEA2C49712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{C491E8A7-5039-40F2-B4B6-2CEA2C49712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{453F3645-B244-4267-AF9C-7CEC6BDEAB5A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{632843B6-04B7-4152-AF97-EF286516FFAB}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81EE8-4E22-4D78-BEF4-B98177E4F71F}">
-  <dimension ref="A1:E232"/>
+  <dimension ref="B1:J232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,2103 +410,2103 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="F1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="H1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="J1" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>661.7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="2">
         <v>647.6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="F2" s="2">
         <v>562.6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="H2" s="2">
         <v>480</v>
       </c>
-      <c r="E2" s="2">
+      <c r="J2" s="2">
         <v>650.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
         <v>714.5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>807.4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="F3" s="2">
         <v>419</v>
       </c>
-      <c r="D3" s="2">
+      <c r="H3" s="2">
         <v>335.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="J3" s="2">
         <v>726.9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>895.3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="D4" s="2">
         <v>1015.6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="F4" s="2">
         <v>269</v>
       </c>
-      <c r="D4" s="2">
+      <c r="H4" s="2">
         <v>208</v>
       </c>
-      <c r="E4" s="2">
+      <c r="J4" s="2">
         <v>898.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>1114.9000000000001</v>
       </c>
-      <c r="B5" s="2">
+      <c r="D5" s="2">
         <v>1038</v>
       </c>
-      <c r="C5" s="2">
+      <c r="F5" s="2">
         <v>159.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="H5" s="2">
         <v>114.6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="J5" s="2">
         <v>1119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>1173.5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="D6" s="2">
         <v>921.6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="F6" s="2">
         <v>73.8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="H6" s="2">
         <v>46.4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="J6" s="2">
         <v>1169.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>1014.5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="D7" s="2">
         <v>747.8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="F7" s="2">
         <v>32.299999999999997</v>
       </c>
-      <c r="D7" s="2">
-        <v>44791</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="J7" s="2">
         <v>971</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>806</v>
       </c>
-      <c r="B8" s="2">
+      <c r="D8" s="2">
         <v>696.6</v>
       </c>
-      <c r="C8" s="2">
-        <v>44578</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44698</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="J8" s="2">
         <v>795.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>747.1</v>
       </c>
-      <c r="B9" s="2">
+      <c r="D9" s="2">
         <v>672.7</v>
       </c>
-      <c r="C9" s="2">
-        <v>44581</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44701</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="J9" s="2">
         <v>721.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>728.3</v>
       </c>
-      <c r="B10" s="2">
+      <c r="D10" s="2">
         <v>764.3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="F10" s="2">
         <v>22</v>
       </c>
-      <c r="D10" s="2">
-        <v>44800</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="H10" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="J10" s="2">
         <v>730.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>829.6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="D11" s="2">
         <v>1107.9000000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="F11" s="2">
         <v>40.200000000000003</v>
       </c>
-      <c r="D11" s="2">
+      <c r="H11" s="2">
         <v>49.1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="J11" s="2">
         <v>845.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>1219.2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="D12" s="2">
         <v>1693.5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="F12" s="2">
         <v>68.099999999999994</v>
       </c>
-      <c r="D12" s="2">
+      <c r="H12" s="2">
         <v>79.099999999999994</v>
       </c>
-      <c r="E12" s="2">
+      <c r="J12" s="2">
         <v>1252.4000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>1777.2</v>
       </c>
-      <c r="B13" s="2">
+      <c r="D13" s="2">
         <v>2148</v>
       </c>
-      <c r="C13" s="2">
+      <c r="F13" s="2">
         <v>105.1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="H13" s="2">
         <v>128.4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="J13" s="2">
         <v>1828.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>2222.1</v>
       </c>
-      <c r="B14" s="2">
+      <c r="D14" s="2">
         <v>1877</v>
       </c>
-      <c r="C14" s="2">
+      <c r="F14" s="2">
         <v>148.1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="H14" s="2">
         <v>174.9</v>
       </c>
-      <c r="E14" s="2">
+      <c r="J14" s="2">
         <v>2202.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>1934.8</v>
       </c>
-      <c r="B15" s="2">
+      <c r="D15" s="2">
         <v>1214.7</v>
       </c>
-      <c r="C15" s="2">
+      <c r="F15" s="2">
         <v>188.8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="H15" s="2">
         <v>220.1</v>
       </c>
-      <c r="E15" s="2">
+      <c r="J15" s="2">
         <v>1832.4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>1218.3</v>
       </c>
-      <c r="B16" s="2">
+      <c r="D16" s="2">
         <v>856.9</v>
       </c>
-      <c r="C16" s="2">
+      <c r="F16" s="2">
         <v>237.4</v>
       </c>
-      <c r="D16" s="2">
+      <c r="H16" s="2">
         <v>281.60000000000002</v>
       </c>
-      <c r="E16" s="2">
+      <c r="J16" s="2">
         <v>1136.9000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>820.2</v>
       </c>
-      <c r="B17" s="2">
+      <c r="D17" s="2">
         <v>657</v>
       </c>
-      <c r="C17" s="2">
+      <c r="F17" s="2">
         <v>276.60000000000002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="H17" s="2">
         <v>317.8</v>
       </c>
-      <c r="E17" s="2">
+      <c r="J17" s="2">
         <v>779.8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>657.5</v>
       </c>
-      <c r="B18" s="2">
+      <c r="D18" s="2">
         <v>589.6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="F18" s="2">
         <v>322.8</v>
       </c>
-      <c r="D18" s="2">
+      <c r="H18" s="2">
         <v>380</v>
       </c>
-      <c r="E18" s="2">
+      <c r="J18" s="2">
         <v>630</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>567.9</v>
       </c>
-      <c r="B19" s="2">
+      <c r="D19" s="2">
         <v>506.8</v>
       </c>
-      <c r="C19" s="2">
+      <c r="F19" s="2">
         <v>358.6</v>
       </c>
-      <c r="D19" s="2">
+      <c r="H19" s="2">
         <v>407.8</v>
       </c>
-      <c r="E19" s="2">
+      <c r="J19" s="2">
         <v>549.20000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>510.6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="D20" s="2">
         <v>473.1</v>
       </c>
-      <c r="C20" s="2">
+      <c r="F20" s="2">
         <v>402.9</v>
       </c>
-      <c r="D20" s="2">
+      <c r="H20" s="2">
         <v>467.9</v>
       </c>
-      <c r="E20" s="2">
+      <c r="J20" s="2">
         <v>496.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>471.8</v>
       </c>
-      <c r="B21" s="2">
+      <c r="D21" s="2">
         <v>435.8</v>
       </c>
-      <c r="C21" s="2">
+      <c r="F21" s="2">
         <v>437</v>
       </c>
-      <c r="D21" s="2">
+      <c r="H21" s="2">
         <v>481.7</v>
       </c>
-      <c r="E21" s="2">
+      <c r="J21" s="2">
         <v>456.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>443.3</v>
       </c>
-      <c r="B22" s="2">
+      <c r="D22" s="2">
         <v>422.2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="F22" s="2">
         <v>464.9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="H22" s="2">
         <v>541.9</v>
       </c>
-      <c r="E22" s="2">
+      <c r="J22" s="2">
         <v>435.3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>449.3</v>
       </c>
-      <c r="B23" s="2">
+      <c r="D23" s="2">
         <v>410.6</v>
       </c>
-      <c r="C23" s="2">
+      <c r="F23" s="2">
         <v>484.8</v>
       </c>
-      <c r="D23" s="2">
+      <c r="H23" s="2">
         <v>568.70000000000005</v>
       </c>
-      <c r="E23" s="2">
+      <c r="J23" s="2">
         <v>434.1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
         <v>425.7</v>
       </c>
-      <c r="B24" s="2">
+      <c r="D24" s="2">
         <v>399.9</v>
       </c>
-      <c r="C24" s="2">
+      <c r="F24" s="2">
         <v>516</v>
       </c>
-      <c r="D24" s="2">
+      <c r="H24" s="2">
         <v>596.20000000000005</v>
       </c>
-      <c r="E24" s="2">
+      <c r="J24" s="2">
         <v>425.1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
         <v>425.1</v>
       </c>
-      <c r="B25" s="2">
+      <c r="D25" s="2">
         <v>400.7</v>
       </c>
-      <c r="C25" s="2">
+      <c r="F25" s="2">
         <v>557.70000000000005</v>
       </c>
-      <c r="D25" s="2">
+      <c r="H25" s="2">
         <v>622.9</v>
       </c>
-      <c r="E25" s="2">
+      <c r="J25" s="2">
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <v>409.5</v>
       </c>
-      <c r="B26" s="2">
+      <c r="D26" s="2">
         <v>371.4</v>
       </c>
-      <c r="C26" s="2">
+      <c r="F26" s="2">
         <v>578.1</v>
       </c>
-      <c r="D26" s="2">
+      <c r="H26" s="2">
         <v>661.6</v>
       </c>
-      <c r="E26" s="2">
+      <c r="J26" s="2">
         <v>394.1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
         <v>395.4</v>
       </c>
-      <c r="B27" s="2">
+      <c r="D27" s="2">
         <v>364.9</v>
       </c>
-      <c r="C27" s="2">
+      <c r="F27" s="2">
         <v>580.6</v>
       </c>
-      <c r="D27" s="2">
+      <c r="H27" s="2">
         <v>668.2</v>
       </c>
-      <c r="E27" s="2">
+      <c r="J27" s="2">
         <v>382.9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="2">
         <v>614.4</v>
       </c>
-      <c r="D28" s="2">
+      <c r="H28" s="2">
         <v>686.4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="2">
         <v>609.29999999999995</v>
       </c>
-      <c r="D29" s="2">
+      <c r="H29" s="2">
         <v>690.1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
         <v>621.5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="H30" s="2">
         <v>714.1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
         <v>616.6</v>
       </c>
-      <c r="D31" s="2">
+      <c r="H31" s="2">
         <v>700.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="2">
         <v>627.5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="H32" s="2">
         <v>711.9</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="2">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="2">
         <v>635.6</v>
       </c>
-      <c r="D33" s="2">
+      <c r="H33" s="2">
         <v>706.4</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="2">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="2">
         <v>653.79999999999995</v>
       </c>
-      <c r="D34" s="2">
+      <c r="H34" s="2">
         <v>722</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="2">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="2">
         <v>648.1</v>
       </c>
-      <c r="D35" s="2">
+      <c r="H35" s="2">
         <v>708.2</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="2">
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
         <v>653.4</v>
       </c>
-      <c r="D36" s="2">
+      <c r="H36" s="2">
         <v>730.5</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="2">
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="2">
         <v>658.3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="H37" s="2">
         <v>737.6</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="2">
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="2">
         <v>731.4</v>
       </c>
-      <c r="D38" s="2">
+      <c r="H38" s="2">
         <v>800.8</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="2">
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="2">
         <v>875.4</v>
       </c>
-      <c r="D39" s="2">
+      <c r="H39" s="2">
         <v>978.5</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="2">
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="2">
         <v>1099.4000000000001</v>
       </c>
-      <c r="D40" s="2">
+      <c r="H40" s="2">
         <v>1212.7</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="2">
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="2">
         <v>1198.9000000000001</v>
       </c>
-      <c r="D41" s="2">
+      <c r="H41" s="2">
         <v>1269.9000000000001</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="2">
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="2">
         <v>1032.4000000000001</v>
       </c>
-      <c r="D42" s="2">
+      <c r="H42" s="2">
         <v>1061.4000000000001</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="2">
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="2">
         <v>821.6</v>
       </c>
-      <c r="D43" s="2">
+      <c r="H43" s="2">
         <v>827.7</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="2">
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="2">
         <v>732.4</v>
       </c>
-      <c r="D44" s="2">
+      <c r="H44" s="2">
         <v>761.6</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="2">
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="2">
         <v>742.8</v>
       </c>
-      <c r="D45" s="2">
+      <c r="H45" s="2">
         <v>756.5</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="2">
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
         <v>815.7</v>
       </c>
-      <c r="D46" s="2">
+      <c r="H46" s="2">
         <v>890.6</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="2">
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="2">
         <v>1206.3</v>
       </c>
-      <c r="D47" s="2">
+      <c r="H47" s="2">
         <v>1292.5</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="2">
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="2">
         <v>1787.1</v>
       </c>
-      <c r="D48" s="2">
+      <c r="H48" s="2">
         <v>1866.6</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="2">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="2">
         <v>2209.3000000000002</v>
       </c>
-      <c r="D49" s="2">
+      <c r="H49" s="2">
         <v>2187.6</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="2">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="2">
         <v>1916.8</v>
       </c>
-      <c r="D50" s="2">
+      <c r="H50" s="2">
         <v>1792.5</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="2">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="2">
         <v>1205</v>
       </c>
-      <c r="D51" s="2">
+      <c r="H51" s="2">
         <v>1105</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="2">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="2">
         <v>804.4</v>
       </c>
-      <c r="D52" s="2">
+      <c r="H52" s="2">
         <v>763</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="2">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="2">
         <v>638.70000000000005</v>
       </c>
-      <c r="D53" s="2">
+      <c r="H53" s="2">
         <v>624.5</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="2">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="2">
         <v>554.9</v>
       </c>
-      <c r="D54" s="2">
+      <c r="H54" s="2">
         <v>535.9</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="2">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="2">
         <v>495.7</v>
       </c>
-      <c r="D55" s="2">
+      <c r="H55" s="2">
         <v>489.8</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="2">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="2">
         <v>470.6</v>
       </c>
-      <c r="D56" s="2">
+      <c r="H56" s="2">
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="2">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="2">
         <v>444.7</v>
       </c>
-      <c r="D57" s="2">
+      <c r="H57" s="2">
         <v>453.9</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="2">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="2">
         <v>428.2</v>
       </c>
-      <c r="D58" s="2">
+      <c r="H58" s="2">
         <v>423.7</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="2">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="2">
         <v>428.3</v>
       </c>
-      <c r="D59" s="2">
+      <c r="H59" s="2">
         <v>427.3</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="2">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="2">
         <v>409.5</v>
       </c>
-      <c r="D60" s="2">
+      <c r="H60" s="2">
         <v>423.2</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="2">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="2">
         <v>401.1</v>
       </c>
-      <c r="D61" s="2">
+      <c r="H61" s="2">
         <v>410.2</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="2">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="2">
         <v>382.9</v>
       </c>
-      <c r="D62" s="2">
+      <c r="H62" s="2">
         <v>392.9</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="2">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="2">
         <v>374.7</v>
       </c>
-      <c r="D63" s="2">
+      <c r="H63" s="2">
         <v>379.9</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="2">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="2">
         <v>375.2</v>
       </c>
-      <c r="D64" s="2">
+      <c r="H64" s="2">
         <v>375.6</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="2">
         <v>361.3</v>
       </c>
-      <c r="D65" s="2">
+      <c r="H65" s="2">
         <v>362.5</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="2">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="2">
         <v>364.9</v>
       </c>
-      <c r="D66" s="2">
+      <c r="H66" s="2">
         <v>357.7</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="2">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="2">
         <v>341.2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="H67" s="2">
         <v>344.3</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="2">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="2">
         <v>334</v>
       </c>
-      <c r="D68" s="2">
+      <c r="H68" s="2">
         <v>346.5</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="2">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="2">
         <v>324.7</v>
       </c>
-      <c r="D69" s="2">
+      <c r="H69" s="2">
         <v>320.3</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="2">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="2">
         <v>307.89999999999998</v>
       </c>
-      <c r="D70" s="2">
+      <c r="H70" s="2">
         <v>315.2</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="2">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="2">
         <v>294.5</v>
       </c>
-      <c r="D71" s="2">
+      <c r="H71" s="2">
         <v>297.60000000000002</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="2">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="2">
         <v>290.8</v>
       </c>
-      <c r="D72" s="2">
+      <c r="H72" s="2">
         <v>292.10000000000002</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="2">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="2">
         <v>279.7</v>
       </c>
-      <c r="D73" s="2">
+      <c r="H73" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="2">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="2">
         <v>270</v>
       </c>
-      <c r="D74" s="2">
+      <c r="H74" s="2">
         <v>262.5</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="2">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="2">
         <v>262.3</v>
       </c>
-      <c r="D75" s="2">
+      <c r="H75" s="2">
         <v>253.9</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="2">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="2">
         <v>257.10000000000002</v>
       </c>
-      <c r="D76" s="2">
+      <c r="H76" s="2">
         <v>247.7</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="2">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="2">
         <v>246.1</v>
       </c>
-      <c r="D77" s="2">
+      <c r="H77" s="2">
         <v>241.7</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="2">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F78" s="2">
         <v>243.7</v>
       </c>
-      <c r="D78" s="2">
+      <c r="H78" s="2">
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="2">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F79" s="2">
         <v>229.7</v>
       </c>
-      <c r="D79" s="2">
+      <c r="H79" s="2">
         <v>229.2</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" s="2">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F80" s="2">
         <v>231.7</v>
       </c>
-      <c r="D80" s="2">
+      <c r="H80" s="2">
         <v>219.2</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="2">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F81" s="2">
         <v>225.1</v>
       </c>
-      <c r="D81" s="2">
+      <c r="H81" s="2">
         <v>213.5</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="2">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F82" s="2">
         <v>213.3</v>
       </c>
-      <c r="D82" s="2">
+      <c r="H82" s="2">
         <v>203.3</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="2">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F83" s="2">
         <v>208.7</v>
       </c>
-      <c r="D83" s="2">
+      <c r="H83" s="2">
         <v>204.9</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="2">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F84" s="2">
         <v>204</v>
       </c>
-      <c r="D84" s="2">
+      <c r="H84" s="2">
         <v>192.8</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="2">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="2">
         <v>207</v>
       </c>
-      <c r="D85" s="2">
+      <c r="H85" s="2">
         <v>179.9</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="2">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F86" s="2">
         <v>199.2</v>
       </c>
-      <c r="D86" s="2">
+      <c r="H86" s="2">
         <v>178.1</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="2">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F87" s="2">
         <v>186.7</v>
       </c>
-      <c r="D87" s="2">
+      <c r="H87" s="2">
         <v>177.2</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="2">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F88" s="2">
         <v>189.6</v>
       </c>
-      <c r="D88" s="2">
+      <c r="H88" s="2">
         <v>174.6</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="2">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F89" s="2">
         <v>175.9</v>
       </c>
-      <c r="D89" s="2">
+      <c r="H89" s="2">
         <v>160.5</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="2">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="2">
         <v>180.8</v>
       </c>
-      <c r="D90" s="2">
+      <c r="H90" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="2">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F91" s="2">
         <v>179.3</v>
       </c>
-      <c r="D91" s="2">
+      <c r="H91" s="2">
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="2">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="2">
         <v>170.8</v>
       </c>
-      <c r="D92" s="2">
+      <c r="H92" s="2">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="2">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="2">
         <v>157</v>
       </c>
-      <c r="D93" s="2">
+      <c r="H93" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="2">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F94" s="2">
         <v>163.4</v>
       </c>
-      <c r="D94" s="2">
+      <c r="H94" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="2">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F95" s="2">
         <v>160.30000000000001</v>
       </c>
-      <c r="D95" s="2">
+      <c r="H95" s="2">
         <v>142.30000000000001</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="2">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F96" s="2">
         <v>150.80000000000001</v>
       </c>
-      <c r="D96" s="2">
+      <c r="H96" s="2">
         <v>140.6</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="2">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F97" s="2">
         <v>149.19999999999999</v>
       </c>
-      <c r="D97" s="2">
+      <c r="H97" s="2">
         <v>133.19999999999999</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="2">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F98" s="2">
         <v>143.30000000000001</v>
       </c>
-      <c r="D98" s="2">
+      <c r="H98" s="2">
         <v>126.1</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="2">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F99" s="2">
         <v>145.69999999999999</v>
       </c>
-      <c r="D99" s="2">
+      <c r="H99" s="2">
         <v>128.19999999999999</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="2">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F100" s="2">
         <v>138.4</v>
       </c>
-      <c r="D100" s="2">
+      <c r="H100" s="2">
         <v>128.9</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="2">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F101" s="2">
         <v>142.19999999999999</v>
       </c>
-      <c r="D101" s="2">
+      <c r="H101" s="2">
         <v>130.19999999999999</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="2">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F102" s="2">
         <v>141</v>
       </c>
-      <c r="D102" s="2">
+      <c r="H102" s="2">
         <v>128.19999999999999</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="2">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F103" s="2">
         <v>146</v>
       </c>
-      <c r="D103" s="2">
+      <c r="H103" s="2">
         <v>132.6</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="2">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F104" s="2">
         <v>156.1</v>
       </c>
-      <c r="D104" s="2">
+      <c r="H104" s="2">
         <v>148.4</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="2">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F105" s="2">
         <v>178.9</v>
       </c>
-      <c r="D105" s="2">
+      <c r="H105" s="2">
         <v>169.7</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="2">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F106" s="2">
         <v>216.2</v>
       </c>
-      <c r="D106" s="2">
+      <c r="H106" s="2">
         <v>200.6</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="2">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F107" s="2">
         <v>276.10000000000002</v>
       </c>
-      <c r="D107" s="2">
+      <c r="H107" s="2">
         <v>249.1</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="2">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F108" s="2">
         <v>278</v>
       </c>
-      <c r="D108" s="2">
+      <c r="H108" s="2">
         <v>236.6</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="2">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="2">
         <v>206.8</v>
       </c>
-      <c r="D109" s="2">
+      <c r="H109" s="2">
         <v>184.7</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="2">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F110" s="2">
         <v>136.9</v>
       </c>
-      <c r="D110" s="2">
+      <c r="H110" s="2">
         <v>119.7</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="2">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F111" s="2">
         <v>120</v>
       </c>
-      <c r="D111" s="2">
+      <c r="H111" s="2">
         <v>114.5</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="2">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F112" s="2">
         <v>115.5</v>
       </c>
-      <c r="D112" s="2">
+      <c r="H112" s="2">
         <v>114.1</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="2">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F113" s="2">
         <v>117</v>
       </c>
-      <c r="D113" s="2">
+      <c r="H113" s="2">
         <v>107.8</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="2">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F114" s="2">
         <v>118.7</v>
       </c>
-      <c r="D114" s="2">
+      <c r="H114" s="2">
         <v>108.3</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="2">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F115" s="2">
         <v>108</v>
       </c>
-      <c r="D115" s="2">
+      <c r="H115" s="2">
         <v>98.5</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="2">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F116" s="2">
         <v>109.4</v>
       </c>
-      <c r="D116" s="2">
+      <c r="H116" s="2">
         <v>101.2</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="2">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F117" s="2">
         <v>106.8</v>
       </c>
-      <c r="D117" s="2">
+      <c r="H117" s="2">
         <v>96.4</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="2">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F118" s="2">
         <v>115.3</v>
       </c>
-      <c r="D118" s="2">
+      <c r="H118" s="2">
         <v>104.1</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="2">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F119" s="2">
         <v>115.3</v>
       </c>
-      <c r="D119" s="2">
+      <c r="H119" s="2">
         <v>107.3</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="2">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F120" s="2">
         <v>123.8</v>
       </c>
-      <c r="D120" s="2">
+      <c r="H120" s="2">
         <v>119.6</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="2">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F121" s="2">
         <v>155.4</v>
       </c>
-      <c r="D121" s="2">
+      <c r="H121" s="2">
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="2">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F122" s="2">
         <v>211.3</v>
       </c>
-      <c r="D122" s="2">
+      <c r="H122" s="2">
         <v>226.4</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="2">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F123" s="2">
         <v>380.8</v>
       </c>
-      <c r="D123" s="2">
+      <c r="H123" s="2">
         <v>359.3</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="2">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F124" s="2">
         <v>489.5</v>
       </c>
-      <c r="D124" s="2">
+      <c r="H124" s="2">
         <v>439.2</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C125" s="2">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F125" s="2">
         <v>448.4</v>
       </c>
-      <c r="D125" s="2">
+      <c r="H125" s="2">
         <v>377.3</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C126" s="2">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F126" s="2">
         <v>240.8</v>
       </c>
-      <c r="D126" s="2">
+      <c r="H126" s="2">
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="2">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F127" s="2">
         <v>116.2</v>
       </c>
-      <c r="D127" s="2">
+      <c r="H127" s="2">
         <v>98.3</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C128" s="2">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F128" s="2">
         <v>93.4</v>
       </c>
-      <c r="D128" s="2">
+      <c r="H128" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="2">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F129" s="2">
         <v>87</v>
       </c>
-      <c r="D129" s="2">
+      <c r="H129" s="2">
         <v>80.8</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="2">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F130" s="2">
         <v>83</v>
       </c>
-      <c r="D130" s="2">
+      <c r="H130" s="2">
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="2">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F131" s="2">
         <v>79.400000000000006</v>
       </c>
-      <c r="D131" s="2">
+      <c r="H131" s="2">
         <v>74.8</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="2">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F132" s="2">
         <v>80.3</v>
       </c>
-      <c r="D132" s="2">
+      <c r="H132" s="2">
         <v>70.5</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="2">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F133" s="2">
         <v>79.599999999999994</v>
       </c>
-      <c r="D133" s="2">
+      <c r="H133" s="2">
         <v>75.7</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C134" s="2">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F134" s="2">
         <v>71.900000000000006</v>
       </c>
-      <c r="D134" s="2">
+      <c r="H134" s="2">
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="2">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F135" s="2">
         <v>74.3</v>
       </c>
-      <c r="D135" s="2">
+      <c r="H135" s="2">
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="2">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F136" s="2">
         <v>71.8</v>
       </c>
-      <c r="D136" s="2">
+      <c r="H136" s="2">
         <v>69.5</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="2">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F137" s="2">
         <v>72.099999999999994</v>
       </c>
-      <c r="D137" s="2">
+      <c r="H137" s="2">
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="2">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F138" s="2">
         <v>66.3</v>
       </c>
-      <c r="D138" s="2">
+      <c r="H138" s="2">
         <v>60.3</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="2">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F139" s="2">
         <v>68.5</v>
       </c>
-      <c r="D139" s="2">
+      <c r="H139" s="2">
         <v>62.2</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="2">
+    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F140" s="2">
         <v>65.3</v>
       </c>
-      <c r="D140" s="2">
+      <c r="H140" s="2">
         <v>60.1</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="2">
+    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F141" s="2">
         <v>67.900000000000006</v>
       </c>
-      <c r="D141" s="2">
+      <c r="H141" s="2">
         <v>57.8</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C142" s="2">
+    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F142" s="2">
         <v>59.5</v>
       </c>
-      <c r="D142" s="2">
+      <c r="H142" s="2">
         <v>57.6</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="2">
+    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F143" s="2">
         <v>60.3</v>
       </c>
-      <c r="D143" s="2">
+      <c r="H143" s="2">
         <v>57.2</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="2">
+    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F144" s="2">
         <v>58</v>
       </c>
-      <c r="D144" s="2">
+      <c r="H144" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="2">
+    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F145" s="2">
         <v>56.1</v>
       </c>
-      <c r="D145" s="2">
+      <c r="H145" s="2">
         <v>55.2</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="2">
+    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F146" s="2">
         <v>55.1</v>
       </c>
-      <c r="D146" s="2">
+      <c r="H146" s="2">
         <v>57.6</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="2">
+    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F147" s="2">
         <v>58.3</v>
       </c>
-      <c r="D147" s="2">
+      <c r="H147" s="2">
         <v>51.2</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="2">
+    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F148" s="2">
         <v>52.7</v>
       </c>
-      <c r="D148" s="2">
+      <c r="H148" s="2">
         <v>48.8</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="2">
+    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F149" s="2">
         <v>52.4</v>
       </c>
-      <c r="D149" s="2">
+      <c r="H149" s="2">
         <v>51.7</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="2">
+    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F150" s="2">
         <v>52.3</v>
       </c>
-      <c r="D150" s="2">
+      <c r="H150" s="2">
         <v>45.7</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="2">
+    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F151" s="2">
         <v>51.4</v>
       </c>
-      <c r="D151" s="2">
+      <c r="H151" s="2">
         <v>50.7</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="2">
+    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F152" s="2">
         <v>52.1</v>
       </c>
-      <c r="D152" s="2">
+      <c r="H152" s="2">
         <v>44.9</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="2">
+    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F153" s="2">
         <v>49</v>
       </c>
-      <c r="D153" s="2">
+      <c r="H153" s="2">
         <v>49.8</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C154" s="2">
+    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F154" s="2">
         <v>47.8</v>
       </c>
-      <c r="D154" s="2">
+      <c r="H154" s="2">
         <v>47.9</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" s="2">
+    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F155" s="2">
         <v>48.5</v>
       </c>
-      <c r="D155" s="2">
+      <c r="H155" s="2">
         <v>44.1</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="2">
+    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F156" s="2">
         <v>47.9</v>
       </c>
-      <c r="D156" s="2">
+      <c r="H156" s="2">
         <v>46.1</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="2">
+    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F157" s="2">
         <v>46.4</v>
       </c>
-      <c r="D157" s="2">
+      <c r="H157" s="2">
         <v>40.4</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="2">
+    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F158" s="2">
         <v>45.1</v>
       </c>
-      <c r="D158" s="2">
+      <c r="H158" s="2">
         <v>42.1</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="2">
+    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F159" s="2">
         <v>45.9</v>
       </c>
-      <c r="D159" s="2">
+      <c r="H159" s="2">
         <v>43.9</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C160" s="2">
+    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F160" s="2">
         <v>44.4</v>
       </c>
-      <c r="D160" s="2">
+      <c r="H160" s="2">
         <v>44.2</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C161" s="2">
+    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F161" s="2">
         <v>44.3</v>
       </c>
-      <c r="D161" s="2">
+      <c r="H161" s="2">
         <v>38.5</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" s="2">
+    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F162" s="2">
         <v>42.5</v>
       </c>
-      <c r="D162" s="2">
+      <c r="H162" s="2">
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="2">
+    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F163" s="2">
         <v>43.6</v>
       </c>
-      <c r="D163" s="2">
+      <c r="H163" s="2">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C164" s="2">
+    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F164" s="2">
         <v>42.8</v>
       </c>
-      <c r="D164" s="2">
+      <c r="H164" s="2">
         <v>41.8</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C165" s="2">
+    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F165" s="2">
         <v>43.4</v>
       </c>
-      <c r="D165" s="2">
+      <c r="H165" s="2">
         <v>35.9</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="2">
+    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F166" s="2">
         <v>46.4</v>
       </c>
-      <c r="D166" s="2">
+      <c r="H166" s="2">
         <v>37.1</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C167" s="2">
+    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F167" s="2">
         <v>39.299999999999997</v>
       </c>
-      <c r="D167" s="2">
+      <c r="H167" s="2">
         <v>37.4</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C168" s="2">
+    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F168" s="2">
         <v>41.6</v>
       </c>
-      <c r="D168" s="2">
+      <c r="H168" s="2">
         <v>37.5</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C169" s="2">
+    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F169" s="2">
         <v>38.299999999999997</v>
       </c>
-      <c r="D169" s="2">
+      <c r="H169" s="2">
         <v>36.4</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C170" s="2">
+    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F170" s="2">
         <v>38.4</v>
       </c>
-      <c r="D170" s="2">
+      <c r="H170" s="2">
         <v>38.1</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C171" s="2">
+    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F171" s="2">
         <v>39.6</v>
       </c>
-      <c r="D171" s="2">
+      <c r="H171" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C172" s="2">
+    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F172" s="2">
         <v>40.299999999999997</v>
       </c>
-      <c r="D172" s="2">
+      <c r="H172" s="2">
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C173" s="2">
+    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F173" s="2">
         <v>43.4</v>
       </c>
-      <c r="D173" s="2">
+      <c r="H173" s="2">
         <v>40.1</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C174" s="2">
+    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F174" s="2">
         <v>48.2</v>
       </c>
-      <c r="D174" s="2">
+      <c r="H174" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C175" s="2">
+    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F175" s="2">
         <v>55.6</v>
       </c>
-      <c r="D175" s="2">
+      <c r="H175" s="2">
         <v>51.1</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C176" s="2">
+    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F176" s="2">
         <v>52.8</v>
       </c>
-      <c r="D176" s="2">
+      <c r="H176" s="2">
         <v>42.3</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C177" s="2">
+    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F177" s="2">
         <v>41.5</v>
       </c>
-      <c r="D177" s="2">
+      <c r="H177" s="2">
         <v>36.1</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C178" s="2">
+    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F178" s="2">
         <v>36.9</v>
       </c>
-      <c r="D178" s="2">
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C179" s="2">
+      <c r="H178" s="2">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F179" s="2">
         <v>35.1</v>
       </c>
-      <c r="D179" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C180" s="2">
+      <c r="H179" s="2">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F180" s="2">
         <v>34</v>
       </c>
-      <c r="D180" s="2">
+      <c r="H180" s="2">
         <v>32.6</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C181" s="2">
+    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F181" s="2">
         <v>36.700000000000003</v>
       </c>
-      <c r="D181" s="2">
+      <c r="H181" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C182" s="2">
+    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F182" s="2">
         <v>34</v>
       </c>
-      <c r="D182" s="2">
-        <v>44680</v>
-      </c>
-    </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C183" s="2">
-        <v>44712</v>
-      </c>
-      <c r="D183" s="2">
+      <c r="H182" s="2">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F183" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="H183" s="2">
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C184" s="2">
+    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F184" s="2">
         <v>33.1</v>
       </c>
-      <c r="D184" s="2">
+      <c r="H184" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C185" s="2">
-        <v>44589</v>
-      </c>
-      <c r="D185" s="2">
+    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F185" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="H185" s="2">
         <v>29.2</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C186" s="2">
-        <v>44710</v>
-      </c>
-      <c r="D186" s="2">
+    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F186" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="H186" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C187" s="2">
+    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F187" s="2">
         <v>30.2</v>
       </c>
-      <c r="D187" s="2">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C188" s="2">
-        <v>44832</v>
-      </c>
-      <c r="D188" s="2">
+      <c r="H187" s="2">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F188" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="H188" s="2">
         <v>31.6</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C189" s="2">
+    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F189" s="2">
         <v>29.2</v>
       </c>
-      <c r="D189" s="2">
-        <v>44649</v>
-      </c>
-    </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C190" s="2">
-        <v>44680</v>
-      </c>
-      <c r="D190" s="2">
+      <c r="H189" s="2">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F190" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="H190" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C191" s="2">
-        <v>44680</v>
-      </c>
-      <c r="D191" s="2">
-        <v>44833</v>
-      </c>
-    </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C192" s="2">
-        <v>44650</v>
-      </c>
-      <c r="D192" s="2">
-        <v>44711</v>
-      </c>
-    </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C193" s="2">
-        <v>44832</v>
-      </c>
-      <c r="D193" s="2">
+    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F191" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="H191" s="2">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F192" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="H192" s="2">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F193" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="H193" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C194" s="2">
+    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F194" s="2">
         <v>34</v>
       </c>
-      <c r="D194" s="2">
+      <c r="H194" s="2">
         <v>32.1</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C195" s="2">
+    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F195" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="D195" s="2">
+      <c r="H195" s="2">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C196" s="2">
+    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F196" s="2">
         <v>35</v>
       </c>
-      <c r="D196" s="2">
+      <c r="H196" s="2">
         <v>41.7</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C197" s="2">
+    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F197" s="2">
         <v>38.5</v>
       </c>
-      <c r="D197" s="2">
+      <c r="H197" s="2">
         <v>41.1</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C198" s="2">
+    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F198" s="2">
         <v>44</v>
       </c>
-      <c r="D198" s="2">
+      <c r="H198" s="2">
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C199" s="2">
+    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F199" s="2">
         <v>49.4</v>
       </c>
-      <c r="D199" s="2">
+      <c r="H199" s="2">
         <v>44.3</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C200" s="2">
+    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F200" s="2">
         <v>60</v>
       </c>
-      <c r="D200" s="2">
+      <c r="H200" s="2">
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C201" s="2">
+    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F201" s="2">
         <v>73.8</v>
       </c>
-      <c r="D201" s="2">
+      <c r="H201" s="2">
         <v>63.4</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C202" s="2">
+    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F202" s="2">
         <v>51.3</v>
       </c>
-      <c r="D202" s="2">
+      <c r="H202" s="2">
         <v>45.4</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C203" s="2">
+    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F203" s="2">
         <v>33.5</v>
       </c>
-      <c r="D203" s="2">
+      <c r="H203" s="2">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C204" s="2">
-        <v>44680</v>
-      </c>
-      <c r="D204" s="2">
-        <v>44832</v>
-      </c>
-    </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C205" s="2">
+    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F204" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="H204" s="2">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F205" s="2">
         <v>27</v>
       </c>
-      <c r="D205" s="2">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C206" s="2">
-        <v>44708</v>
-      </c>
-      <c r="D206" s="2">
-        <v>44678</v>
-      </c>
-    </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C207" s="2">
+      <c r="H205" s="2">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F206" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="H206" s="2">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F207" s="2">
         <v>28</v>
       </c>
-      <c r="D207" s="2">
-        <v>44589</v>
-      </c>
-    </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C208" s="2">
-        <v>44618</v>
-      </c>
-      <c r="D208" s="2">
-        <v>44829</v>
-      </c>
-    </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C209" s="2">
-        <v>44584</v>
-      </c>
-      <c r="D209" s="2">
-        <v>44828</v>
-      </c>
-    </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C210" s="2">
-        <v>44762</v>
-      </c>
-      <c r="D210" s="2">
-        <v>44673</v>
-      </c>
-    </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C211" s="2">
-        <v>44618</v>
-      </c>
-      <c r="D211" s="2">
-        <v>44765</v>
-      </c>
-    </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C212" s="2">
-        <v>44705</v>
-      </c>
-      <c r="D212" s="2">
-        <v>44796</v>
-      </c>
-    </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C213" s="2">
-        <v>44735</v>
-      </c>
-      <c r="D213" s="2">
-        <v>44763</v>
-      </c>
-    </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C214" s="2">
-        <v>44797</v>
-      </c>
-      <c r="D214" s="2">
-        <v>44701</v>
-      </c>
-    </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C215" s="2">
-        <v>44642</v>
-      </c>
-      <c r="D215" s="2">
-        <v>44582</v>
-      </c>
-    </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C216" s="2">
+      <c r="H207" s="2">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F208" s="2">
+        <v>26.2</v>
+      </c>
+      <c r="H208" s="2">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F209" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="H209" s="2">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F210" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H210" s="2">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F211" s="2">
+        <v>26.2</v>
+      </c>
+      <c r="H211" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F212" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="H212" s="2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F213" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="H213" s="2">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F214" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="H214" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F215" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="H215" s="2">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F216" s="2">
         <v>22</v>
       </c>
-      <c r="D216" s="2">
-        <v>44610</v>
-      </c>
-    </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C217" s="2">
-        <v>44585</v>
-      </c>
-      <c r="D217" s="2">
-        <v>44669</v>
-      </c>
-    </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C218" s="2">
-        <v>44702</v>
-      </c>
-      <c r="D218" s="2">
-        <v>44614</v>
-      </c>
-    </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C219" s="2">
-        <v>44824</v>
-      </c>
-      <c r="D219" s="2">
-        <v>44642</v>
-      </c>
-    </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C220" s="2">
+      <c r="H216" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F217" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="H217" s="2">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F218" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="H218" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F219" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="H219" s="2">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F220" s="2">
         <v>24</v>
       </c>
-      <c r="D220" s="2">
-        <v>44612</v>
-      </c>
-    </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C221" s="2">
-        <v>44729</v>
-      </c>
-      <c r="D221" s="2">
-        <v>44614</v>
-      </c>
-    </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C222" s="2">
-        <v>44670</v>
-      </c>
-      <c r="D222" s="2">
-        <v>44580</v>
-      </c>
-    </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C223" s="2">
-        <v>44640</v>
-      </c>
-      <c r="D223" s="2">
-        <v>44613</v>
-      </c>
-    </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C224" s="2">
+      <c r="H220" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F221" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H221" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F222" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H222" s="2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F223" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="H223" s="2">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F224" s="2">
         <v>20</v>
       </c>
-      <c r="D224" s="2">
-        <v>44760</v>
-      </c>
-    </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C225" s="2">
-        <v>44670</v>
-      </c>
-      <c r="D225" s="2">
-        <v>44639</v>
-      </c>
-    </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C226" s="2">
-        <v>44638</v>
-      </c>
-      <c r="D226" s="2">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C227" s="2">
+      <c r="H224" s="2">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F225" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H225" s="2">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F226" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="H226" s="2">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F227" s="2">
         <v>19</v>
       </c>
-      <c r="D227" s="2">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C228" s="2">
+      <c r="H227" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F228" s="2">
         <v>20</v>
       </c>
-      <c r="D228" s="2">
-        <v>44822</v>
-      </c>
-    </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C229" s="2">
-        <v>44637</v>
-      </c>
-      <c r="D229" s="2">
-        <v>44730</v>
-      </c>
-    </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C230" s="2">
-        <v>44581</v>
-      </c>
-      <c r="D230" s="2">
+      <c r="H228" s="2">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F229" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="H229" s="2">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F230" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H230" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C231" s="2">
+    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F231" s="2">
         <v>19</v>
       </c>
-      <c r="D231" s="2">
+      <c r="H231" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C232" s="2">
-        <v>44669</v>
-      </c>
-      <c r="D232" s="2">
-        <v>44608</v>
+    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F232" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H232" s="2">
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>

--- a/11/Data/data.xlsx
+++ b/11/Data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6a74b15c80f35c5/Documents/GitHub/IIPF/11/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{C491E8A7-5039-40F2-B4B6-2CEA2C49712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{453F3645-B244-4267-AF9C-7CEC6BDEAB5A}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{C491E8A7-5039-40F2-B4B6-2CEA2C49712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EFA8E46-469B-4F37-832C-78E797AD0416}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{632843B6-04B7-4152-AF97-EF286516FFAB}"/>
+    <workbookView xWindow="1320" yWindow="1320" windowWidth="21600" windowHeight="12540" xr2:uid="{632843B6-04B7-4152-AF97-EF286516FFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>1a</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,11 +73,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,2113 +392,2096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81EE8-4E22-4D78-BEF4-B98177E4F71F}">
-  <dimension ref="B1:J232"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>661.7</v>
+      </c>
       <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <v>661.7</v>
-      </c>
-      <c r="D2" s="2">
         <v>647.6</v>
       </c>
-      <c r="F2" s="2">
+      <c r="C1" s="1">
         <v>562.6</v>
       </c>
-      <c r="H2" s="2">
+      <c r="D1" s="1">
         <v>480</v>
       </c>
-      <c r="J2" s="2">
+      <c r="E1" s="1">
         <v>650.1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>714.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="B2" s="1">
         <v>807.4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="C2" s="1">
         <v>419</v>
       </c>
-      <c r="H3" s="2">
+      <c r="D2" s="1">
         <v>335.5</v>
       </c>
-      <c r="J3" s="2">
+      <c r="E2" s="1">
         <v>726.9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>895.3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="B3" s="1">
         <v>1015.6</v>
       </c>
-      <c r="F4" s="2">
+      <c r="C3" s="1">
         <v>269</v>
       </c>
-      <c r="H4" s="2">
+      <c r="D3" s="1">
         <v>208</v>
       </c>
-      <c r="J4" s="2">
+      <c r="E3" s="1">
         <v>898.2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1114.9000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="B4" s="1">
         <v>1038</v>
       </c>
-      <c r="F5" s="2">
+      <c r="C4" s="1">
         <v>159.5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="D4" s="1">
         <v>114.6</v>
       </c>
-      <c r="J5" s="2">
+      <c r="E4" s="1">
         <v>1119</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1173.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="B5" s="1">
         <v>921.6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="C5" s="1">
         <v>73.8</v>
       </c>
-      <c r="H6" s="2">
+      <c r="D5" s="1">
         <v>46.4</v>
       </c>
-      <c r="J6" s="2">
+      <c r="E5" s="1">
         <v>1169.3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1014.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="B6" s="1">
         <v>747.8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="C6" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="H7" s="2">
+      <c r="D6" s="1">
         <v>18.8</v>
       </c>
-      <c r="J7" s="2">
+      <c r="E6" s="1">
         <v>971</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>806</v>
       </c>
-      <c r="D8" s="2">
+      <c r="B7" s="1">
         <v>696.6</v>
       </c>
-      <c r="F8" s="2">
+      <c r="C7" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="D7" s="1">
         <v>17.5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="E7" s="1">
         <v>795.5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>747.1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="B8" s="1">
         <v>672.7</v>
       </c>
-      <c r="F9" s="2">
+      <c r="C8" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="D8" s="1">
         <v>20.5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="E8" s="1">
         <v>721.4</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>728.3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="B9" s="1">
         <v>764.3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="C9" s="1">
         <v>22</v>
       </c>
-      <c r="H10" s="2">
+      <c r="D9" s="1">
         <v>27.8</v>
       </c>
-      <c r="J10" s="2">
+      <c r="E9" s="1">
         <v>730.9</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>829.6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="B10" s="1">
         <v>1107.9000000000001</v>
       </c>
-      <c r="F11" s="2">
+      <c r="C10" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="H11" s="2">
+      <c r="D10" s="1">
         <v>49.1</v>
       </c>
-      <c r="J11" s="2">
+      <c r="E10" s="1">
         <v>845.9</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>1219.2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="B11" s="1">
         <v>1693.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="C11" s="1">
         <v>68.099999999999994</v>
       </c>
-      <c r="H12" s="2">
+      <c r="D11" s="1">
         <v>79.099999999999994</v>
       </c>
-      <c r="J12" s="2">
+      <c r="E11" s="1">
         <v>1252.4000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>1777.2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="B12" s="1">
         <v>2148</v>
       </c>
-      <c r="F13" s="2">
+      <c r="C12" s="1">
         <v>105.1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="D12" s="1">
         <v>128.4</v>
       </c>
-      <c r="J13" s="2">
+      <c r="E12" s="1">
         <v>1828.5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2222.1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="B13" s="1">
         <v>1877</v>
       </c>
-      <c r="F14" s="2">
+      <c r="C13" s="1">
         <v>148.1</v>
       </c>
-      <c r="H14" s="2">
+      <c r="D13" s="1">
         <v>174.9</v>
       </c>
-      <c r="J14" s="2">
+      <c r="E13" s="1">
         <v>2202.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>1934.8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="B14" s="1">
         <v>1214.7</v>
       </c>
-      <c r="F15" s="2">
+      <c r="C14" s="1">
         <v>188.8</v>
       </c>
-      <c r="H15" s="2">
+      <c r="D14" s="1">
         <v>220.1</v>
       </c>
-      <c r="J15" s="2">
+      <c r="E14" s="1">
         <v>1832.4</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>1218.3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="B15" s="1">
         <v>856.9</v>
       </c>
-      <c r="F16" s="2">
+      <c r="C15" s="1">
         <v>237.4</v>
       </c>
-      <c r="H16" s="2">
+      <c r="D15" s="1">
         <v>281.60000000000002</v>
       </c>
-      <c r="J16" s="2">
+      <c r="E15" s="1">
         <v>1136.9000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>820.2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="B16" s="1">
         <v>657</v>
       </c>
-      <c r="F17" s="2">
+      <c r="C16" s="1">
         <v>276.60000000000002</v>
       </c>
-      <c r="H17" s="2">
+      <c r="D16" s="1">
         <v>317.8</v>
       </c>
-      <c r="J17" s="2">
+      <c r="E16" s="1">
         <v>779.8</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>657.5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="B17" s="1">
         <v>589.6</v>
       </c>
-      <c r="F18" s="2">
+      <c r="C17" s="1">
         <v>322.8</v>
       </c>
-      <c r="H18" s="2">
+      <c r="D17" s="1">
         <v>380</v>
       </c>
-      <c r="J18" s="2">
+      <c r="E17" s="1">
         <v>630</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>567.9</v>
       </c>
-      <c r="D19" s="2">
+      <c r="B18" s="1">
         <v>506.8</v>
       </c>
-      <c r="F19" s="2">
+      <c r="C18" s="1">
         <v>358.6</v>
       </c>
-      <c r="H19" s="2">
+      <c r="D18" s="1">
         <v>407.8</v>
       </c>
-      <c r="J19" s="2">
+      <c r="E18" s="1">
         <v>549.20000000000005</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>510.6</v>
       </c>
-      <c r="D20" s="2">
+      <c r="B19" s="1">
         <v>473.1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="C19" s="1">
         <v>402.9</v>
       </c>
-      <c r="H20" s="2">
+      <c r="D19" s="1">
         <v>467.9</v>
       </c>
-      <c r="J20" s="2">
+      <c r="E19" s="1">
         <v>496.5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>471.8</v>
       </c>
-      <c r="D21" s="2">
+      <c r="B20" s="1">
         <v>435.8</v>
       </c>
-      <c r="F21" s="2">
+      <c r="C20" s="1">
         <v>437</v>
       </c>
-      <c r="H21" s="2">
+      <c r="D20" s="1">
         <v>481.7</v>
       </c>
-      <c r="J21" s="2">
+      <c r="E20" s="1">
         <v>456.7</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>443.3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="B21" s="1">
         <v>422.2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="C21" s="1">
         <v>464.9</v>
       </c>
-      <c r="H22" s="2">
+      <c r="D21" s="1">
         <v>541.9</v>
       </c>
-      <c r="J22" s="2">
+      <c r="E21" s="1">
         <v>435.3</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>449.3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="B22" s="1">
         <v>410.6</v>
       </c>
-      <c r="F23" s="2">
+      <c r="C22" s="1">
         <v>484.8</v>
       </c>
-      <c r="H23" s="2">
+      <c r="D22" s="1">
         <v>568.70000000000005</v>
       </c>
-      <c r="J23" s="2">
+      <c r="E22" s="1">
         <v>434.1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>425.7</v>
       </c>
-      <c r="D24" s="2">
+      <c r="B23" s="1">
         <v>399.9</v>
       </c>
-      <c r="F24" s="2">
+      <c r="C23" s="1">
         <v>516</v>
       </c>
-      <c r="H24" s="2">
+      <c r="D23" s="1">
         <v>596.20000000000005</v>
       </c>
-      <c r="J24" s="2">
+      <c r="E23" s="1">
         <v>425.1</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>425.1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="B24" s="1">
         <v>400.7</v>
       </c>
-      <c r="F25" s="2">
+      <c r="C24" s="1">
         <v>557.70000000000005</v>
       </c>
-      <c r="H25" s="2">
+      <c r="D24" s="1">
         <v>622.9</v>
       </c>
-      <c r="J25" s="2">
+      <c r="E24" s="1">
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>409.5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="B25" s="1">
         <v>371.4</v>
       </c>
-      <c r="F26" s="2">
+      <c r="C25" s="1">
         <v>578.1</v>
       </c>
-      <c r="H26" s="2">
+      <c r="D25" s="1">
         <v>661.6</v>
       </c>
-      <c r="J26" s="2">
+      <c r="E25" s="1">
         <v>394.1</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>395.4</v>
       </c>
-      <c r="D27" s="2">
+      <c r="B26" s="1">
         <v>364.9</v>
       </c>
-      <c r="F27" s="2">
+      <c r="C26" s="1">
         <v>580.6</v>
       </c>
-      <c r="H27" s="2">
+      <c r="D26" s="1">
         <v>668.2</v>
       </c>
-      <c r="J27" s="2">
+      <c r="E26" s="1">
         <v>382.9</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
         <v>614.4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="D27" s="1">
         <v>686.4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F29" s="2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
         <v>609.29999999999995</v>
       </c>
-      <c r="H29" s="2">
+      <c r="D28" s="1">
         <v>690.1</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F30" s="2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
         <v>621.5</v>
       </c>
-      <c r="H30" s="2">
+      <c r="D29" s="1">
         <v>714.1</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F31" s="2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
         <v>616.6</v>
       </c>
-      <c r="H31" s="2">
+      <c r="D30" s="1">
         <v>700.9</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F32" s="2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
         <v>627.5</v>
       </c>
-      <c r="H32" s="2">
+      <c r="D31" s="1">
         <v>711.9</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
         <v>635.6</v>
       </c>
-      <c r="H33" s="2">
+      <c r="D32" s="1">
         <v>706.4</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="2">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
         <v>653.79999999999995</v>
       </c>
-      <c r="H34" s="2">
+      <c r="D33" s="1">
         <v>722</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="2">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
         <v>648.1</v>
       </c>
-      <c r="H35" s="2">
+      <c r="D34" s="1">
         <v>708.2</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="2">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
         <v>653.4</v>
       </c>
-      <c r="H36" s="2">
+      <c r="D35" s="1">
         <v>730.5</v>
       </c>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="2">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
         <v>658.3</v>
       </c>
-      <c r="H37" s="2">
+      <c r="D36" s="1">
         <v>737.6</v>
       </c>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F38" s="2">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
         <v>731.4</v>
       </c>
-      <c r="H38" s="2">
+      <c r="D37" s="1">
         <v>800.8</v>
       </c>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F39" s="2">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
         <v>875.4</v>
       </c>
-      <c r="H39" s="2">
+      <c r="D38" s="1">
         <v>978.5</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="2">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
         <v>1099.4000000000001</v>
       </c>
-      <c r="H40" s="2">
+      <c r="D39" s="1">
         <v>1212.7</v>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="2">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
         <v>1198.9000000000001</v>
       </c>
-      <c r="H41" s="2">
+      <c r="D40" s="1">
         <v>1269.9000000000001</v>
       </c>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F42" s="2">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
         <v>1032.4000000000001</v>
       </c>
-      <c r="H42" s="2">
+      <c r="D41" s="1">
         <v>1061.4000000000001</v>
       </c>
     </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="2">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
         <v>821.6</v>
       </c>
-      <c r="H43" s="2">
+      <c r="D42" s="1">
         <v>827.7</v>
       </c>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F44" s="2">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
         <v>732.4</v>
       </c>
-      <c r="H44" s="2">
+      <c r="D43" s="1">
         <v>761.6</v>
       </c>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F45" s="2">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
         <v>742.8</v>
       </c>
-      <c r="H45" s="2">
+      <c r="D44" s="1">
         <v>756.5</v>
       </c>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F46" s="2">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
         <v>815.7</v>
       </c>
-      <c r="H46" s="2">
+      <c r="D45" s="1">
         <v>890.6</v>
       </c>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="2">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
         <v>1206.3</v>
       </c>
-      <c r="H47" s="2">
+      <c r="D46" s="1">
         <v>1292.5</v>
       </c>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="2">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
         <v>1787.1</v>
       </c>
-      <c r="H48" s="2">
+      <c r="D47" s="1">
         <v>1866.6</v>
       </c>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F49" s="2">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
         <v>2209.3000000000002</v>
       </c>
-      <c r="H49" s="2">
+      <c r="D48" s="1">
         <v>2187.6</v>
       </c>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
         <v>1916.8</v>
       </c>
-      <c r="H50" s="2">
+      <c r="D49" s="1">
         <v>1792.5</v>
       </c>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
         <v>1205</v>
       </c>
-      <c r="H51" s="2">
+      <c r="D50" s="1">
         <v>1105</v>
       </c>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F52" s="2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
         <v>804.4</v>
       </c>
-      <c r="H52" s="2">
+      <c r="D51" s="1">
         <v>763</v>
       </c>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F53" s="2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
         <v>638.70000000000005</v>
       </c>
-      <c r="H53" s="2">
+      <c r="D52" s="1">
         <v>624.5</v>
       </c>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F54" s="2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
         <v>554.9</v>
       </c>
-      <c r="H54" s="2">
+      <c r="D53" s="1">
         <v>535.9</v>
       </c>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F55" s="2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
         <v>495.7</v>
       </c>
-      <c r="H55" s="2">
+      <c r="D54" s="1">
         <v>489.8</v>
       </c>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F56" s="2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
         <v>470.6</v>
       </c>
-      <c r="H56" s="2">
+      <c r="D55" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F57" s="2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
         <v>444.7</v>
       </c>
-      <c r="H57" s="2">
+      <c r="D56" s="1">
         <v>453.9</v>
       </c>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F58" s="2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
         <v>428.2</v>
       </c>
-      <c r="H58" s="2">
+      <c r="D57" s="1">
         <v>423.7</v>
       </c>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F59" s="2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
         <v>428.3</v>
       </c>
-      <c r="H59" s="2">
+      <c r="D58" s="1">
         <v>427.3</v>
       </c>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F60" s="2">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
         <v>409.5</v>
       </c>
-      <c r="H60" s="2">
+      <c r="D59" s="1">
         <v>423.2</v>
       </c>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F61" s="2">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
         <v>401.1</v>
       </c>
-      <c r="H61" s="2">
+      <c r="D60" s="1">
         <v>410.2</v>
       </c>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F62" s="2">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
         <v>382.9</v>
       </c>
-      <c r="H62" s="2">
+      <c r="D61" s="1">
         <v>392.9</v>
       </c>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F63" s="2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
         <v>374.7</v>
       </c>
-      <c r="H63" s="2">
+      <c r="D62" s="1">
         <v>379.9</v>
       </c>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F64" s="2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
         <v>375.2</v>
       </c>
-      <c r="H64" s="2">
+      <c r="D63" s="1">
         <v>375.6</v>
       </c>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F65" s="2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
         <v>361.3</v>
       </c>
-      <c r="H65" s="2">
+      <c r="D64" s="1">
         <v>362.5</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F66" s="2">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
         <v>364.9</v>
       </c>
-      <c r="H66" s="2">
+      <c r="D65" s="1">
         <v>357.7</v>
       </c>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F67" s="2">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
         <v>341.2</v>
       </c>
-      <c r="H67" s="2">
+      <c r="D66" s="1">
         <v>344.3</v>
       </c>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F68" s="2">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
         <v>334</v>
       </c>
-      <c r="H68" s="2">
+      <c r="D67" s="1">
         <v>346.5</v>
       </c>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F69" s="2">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
         <v>324.7</v>
       </c>
-      <c r="H69" s="2">
+      <c r="D68" s="1">
         <v>320.3</v>
       </c>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F70" s="2">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
         <v>307.89999999999998</v>
       </c>
-      <c r="H70" s="2">
+      <c r="D69" s="1">
         <v>315.2</v>
       </c>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F71" s="2">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="1">
         <v>294.5</v>
       </c>
-      <c r="H71" s="2">
+      <c r="D70" s="1">
         <v>297.60000000000002</v>
       </c>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F72" s="2">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="1">
         <v>290.8</v>
       </c>
-      <c r="H72" s="2">
+      <c r="D71" s="1">
         <v>292.10000000000002</v>
       </c>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F73" s="2">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
         <v>279.7</v>
       </c>
-      <c r="H73" s="2">
+      <c r="D72" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F74" s="2">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
         <v>270</v>
       </c>
-      <c r="H74" s="2">
+      <c r="D73" s="1">
         <v>262.5</v>
       </c>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F75" s="2">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
         <v>262.3</v>
       </c>
-      <c r="H75" s="2">
+      <c r="D74" s="1">
         <v>253.9</v>
       </c>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F76" s="2">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
         <v>257.10000000000002</v>
       </c>
-      <c r="H76" s="2">
+      <c r="D75" s="1">
         <v>247.7</v>
       </c>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F77" s="2">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
         <v>246.1</v>
       </c>
-      <c r="H77" s="2">
+      <c r="D76" s="1">
         <v>241.7</v>
       </c>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F78" s="2">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="1">
         <v>243.7</v>
       </c>
-      <c r="H78" s="2">
+      <c r="D77" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F79" s="2">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1">
         <v>229.7</v>
       </c>
-      <c r="H79" s="2">
+      <c r="D78" s="1">
         <v>229.2</v>
       </c>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F80" s="2">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="1">
         <v>231.7</v>
       </c>
-      <c r="H80" s="2">
+      <c r="D79" s="1">
         <v>219.2</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F81" s="2">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
         <v>225.1</v>
       </c>
-      <c r="H81" s="2">
+      <c r="D80" s="1">
         <v>213.5</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F82" s="2">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1">
         <v>213.3</v>
       </c>
-      <c r="H82" s="2">
+      <c r="D81" s="1">
         <v>203.3</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F83" s="2">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="1">
         <v>208.7</v>
       </c>
-      <c r="H83" s="2">
+      <c r="D82" s="1">
         <v>204.9</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F84" s="2">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="1">
         <v>204</v>
       </c>
-      <c r="H84" s="2">
+      <c r="D83" s="1">
         <v>192.8</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F85" s="2">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="1">
         <v>207</v>
       </c>
-      <c r="H85" s="2">
+      <c r="D84" s="1">
         <v>179.9</v>
       </c>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F86" s="2">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="1">
         <v>199.2</v>
       </c>
-      <c r="H86" s="2">
+      <c r="D85" s="1">
         <v>178.1</v>
       </c>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F87" s="2">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="1">
         <v>186.7</v>
       </c>
-      <c r="H87" s="2">
+      <c r="D86" s="1">
         <v>177.2</v>
       </c>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F88" s="2">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="1">
         <v>189.6</v>
       </c>
-      <c r="H88" s="2">
+      <c r="D87" s="1">
         <v>174.6</v>
       </c>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F89" s="2">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="1">
         <v>175.9</v>
       </c>
-      <c r="H89" s="2">
+      <c r="D88" s="1">
         <v>160.5</v>
       </c>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F90" s="2">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="1">
         <v>180.8</v>
       </c>
-      <c r="H90" s="2">
+      <c r="D89" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F91" s="2">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="1">
         <v>179.3</v>
       </c>
-      <c r="H91" s="2">
+      <c r="D90" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F92" s="2">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="1">
         <v>170.8</v>
       </c>
-      <c r="H92" s="2">
+      <c r="D91" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F93" s="2">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="1">
         <v>157</v>
       </c>
-      <c r="H93" s="2">
+      <c r="D92" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F94" s="2">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="1">
         <v>163.4</v>
       </c>
-      <c r="H94" s="2">
+      <c r="D93" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F95" s="2">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="1">
         <v>160.30000000000001</v>
       </c>
-      <c r="H95" s="2">
+      <c r="D94" s="1">
         <v>142.30000000000001</v>
       </c>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F96" s="2">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="1">
         <v>150.80000000000001</v>
       </c>
-      <c r="H96" s="2">
+      <c r="D95" s="1">
         <v>140.6</v>
       </c>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F97" s="2">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="1">
         <v>149.19999999999999</v>
       </c>
-      <c r="H97" s="2">
+      <c r="D96" s="1">
         <v>133.19999999999999</v>
       </c>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F98" s="2">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="1">
         <v>143.30000000000001</v>
       </c>
-      <c r="H98" s="2">
+      <c r="D97" s="1">
         <v>126.1</v>
       </c>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F99" s="2">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="1">
         <v>145.69999999999999</v>
       </c>
-      <c r="H99" s="2">
+      <c r="D98" s="1">
         <v>128.19999999999999</v>
       </c>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F100" s="2">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="1">
         <v>138.4</v>
       </c>
-      <c r="H100" s="2">
+      <c r="D99" s="1">
         <v>128.9</v>
       </c>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F101" s="2">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="1">
         <v>142.19999999999999</v>
       </c>
-      <c r="H101" s="2">
+      <c r="D100" s="1">
         <v>130.19999999999999</v>
       </c>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F102" s="2">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="1">
         <v>141</v>
       </c>
-      <c r="H102" s="2">
+      <c r="D101" s="1">
         <v>128.19999999999999</v>
       </c>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F103" s="2">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="1">
         <v>146</v>
       </c>
-      <c r="H103" s="2">
+      <c r="D102" s="1">
         <v>132.6</v>
       </c>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F104" s="2">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="1">
         <v>156.1</v>
       </c>
-      <c r="H104" s="2">
+      <c r="D103" s="1">
         <v>148.4</v>
       </c>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F105" s="2">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="1">
         <v>178.9</v>
       </c>
-      <c r="H105" s="2">
+      <c r="D104" s="1">
         <v>169.7</v>
       </c>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F106" s="2">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="1">
         <v>216.2</v>
       </c>
-      <c r="H106" s="2">
+      <c r="D105" s="1">
         <v>200.6</v>
       </c>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F107" s="2">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="1">
         <v>276.10000000000002</v>
       </c>
-      <c r="H107" s="2">
+      <c r="D106" s="1">
         <v>249.1</v>
       </c>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F108" s="2">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="1">
         <v>278</v>
       </c>
-      <c r="H108" s="2">
+      <c r="D107" s="1">
         <v>236.6</v>
       </c>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F109" s="2">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="1">
         <v>206.8</v>
       </c>
-      <c r="H109" s="2">
+      <c r="D108" s="1">
         <v>184.7</v>
       </c>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F110" s="2">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="1">
         <v>136.9</v>
       </c>
-      <c r="H110" s="2">
+      <c r="D109" s="1">
         <v>119.7</v>
       </c>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F111" s="2">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="1">
         <v>120</v>
       </c>
-      <c r="H111" s="2">
+      <c r="D110" s="1">
         <v>114.5</v>
       </c>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F112" s="2">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="1">
         <v>115.5</v>
       </c>
-      <c r="H112" s="2">
+      <c r="D111" s="1">
         <v>114.1</v>
       </c>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F113" s="2">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="1">
         <v>117</v>
       </c>
-      <c r="H113" s="2">
+      <c r="D112" s="1">
         <v>107.8</v>
       </c>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F114" s="2">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="1">
         <v>118.7</v>
       </c>
-      <c r="H114" s="2">
+      <c r="D113" s="1">
         <v>108.3</v>
       </c>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F115" s="2">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="1">
         <v>108</v>
       </c>
-      <c r="H115" s="2">
+      <c r="D114" s="1">
         <v>98.5</v>
       </c>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F116" s="2">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="1">
         <v>109.4</v>
       </c>
-      <c r="H116" s="2">
+      <c r="D115" s="1">
         <v>101.2</v>
       </c>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F117" s="2">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="1">
         <v>106.8</v>
       </c>
-      <c r="H117" s="2">
+      <c r="D116" s="1">
         <v>96.4</v>
       </c>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F118" s="2">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="1">
         <v>115.3</v>
       </c>
-      <c r="H118" s="2">
+      <c r="D117" s="1">
         <v>104.1</v>
       </c>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F119" s="2">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="1">
         <v>115.3</v>
       </c>
-      <c r="H119" s="2">
+      <c r="D118" s="1">
         <v>107.3</v>
       </c>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F120" s="2">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="1">
         <v>123.8</v>
       </c>
-      <c r="H120" s="2">
+      <c r="D119" s="1">
         <v>119.6</v>
       </c>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F121" s="2">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="1">
         <v>155.4</v>
       </c>
-      <c r="H121" s="2">
+      <c r="D120" s="1">
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F122" s="2">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="1">
         <v>211.3</v>
       </c>
-      <c r="H122" s="2">
+      <c r="D121" s="1">
         <v>226.4</v>
       </c>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F123" s="2">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="1">
         <v>380.8</v>
       </c>
-      <c r="H123" s="2">
+      <c r="D122" s="1">
         <v>359.3</v>
       </c>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F124" s="2">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="1">
         <v>489.5</v>
       </c>
-      <c r="H124" s="2">
+      <c r="D123" s="1">
         <v>439.2</v>
       </c>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F125" s="2">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="1">
         <v>448.4</v>
       </c>
-      <c r="H125" s="2">
+      <c r="D124" s="1">
         <v>377.3</v>
       </c>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F126" s="2">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="1">
         <v>240.8</v>
       </c>
-      <c r="H126" s="2">
+      <c r="D125" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F127" s="2">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="1">
         <v>116.2</v>
       </c>
-      <c r="H127" s="2">
+      <c r="D126" s="1">
         <v>98.3</v>
       </c>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F128" s="2">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="1">
         <v>93.4</v>
       </c>
-      <c r="H128" s="2">
+      <c r="D127" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F129" s="2">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="1">
         <v>87</v>
       </c>
-      <c r="H129" s="2">
+      <c r="D128" s="1">
         <v>80.8</v>
       </c>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F130" s="2">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="1">
         <v>83</v>
       </c>
-      <c r="H130" s="2">
+      <c r="D129" s="1">
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F131" s="2">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="1">
         <v>79.400000000000006</v>
       </c>
-      <c r="H131" s="2">
+      <c r="D130" s="1">
         <v>74.8</v>
       </c>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F132" s="2">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="1">
         <v>80.3</v>
       </c>
-      <c r="H132" s="2">
+      <c r="D131" s="1">
         <v>70.5</v>
       </c>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F133" s="2">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="1">
         <v>79.599999999999994</v>
       </c>
-      <c r="H133" s="2">
+      <c r="D132" s="1">
         <v>75.7</v>
       </c>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F134" s="2">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="1">
         <v>71.900000000000006</v>
       </c>
-      <c r="H134" s="2">
+      <c r="D133" s="1">
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F135" s="2">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="1">
         <v>74.3</v>
       </c>
-      <c r="H135" s="2">
+      <c r="D134" s="1">
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F136" s="2">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="1">
         <v>71.8</v>
       </c>
-      <c r="H136" s="2">
+      <c r="D135" s="1">
         <v>69.5</v>
       </c>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F137" s="2">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="1">
         <v>72.099999999999994</v>
       </c>
-      <c r="H137" s="2">
+      <c r="D136" s="1">
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F138" s="2">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="1">
         <v>66.3</v>
       </c>
-      <c r="H138" s="2">
+      <c r="D137" s="1">
         <v>60.3</v>
       </c>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F139" s="2">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="1">
         <v>68.5</v>
       </c>
-      <c r="H139" s="2">
+      <c r="D138" s="1">
         <v>62.2</v>
       </c>
     </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F140" s="2">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="1">
         <v>65.3</v>
       </c>
-      <c r="H140" s="2">
+      <c r="D139" s="1">
         <v>60.1</v>
       </c>
     </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F141" s="2">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="H141" s="2">
+      <c r="D140" s="1">
         <v>57.8</v>
       </c>
     </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F142" s="2">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="1">
         <v>59.5</v>
       </c>
-      <c r="H142" s="2">
+      <c r="D141" s="1">
         <v>57.6</v>
       </c>
     </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F143" s="2">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="1">
         <v>60.3</v>
       </c>
-      <c r="H143" s="2">
+      <c r="D142" s="1">
         <v>57.2</v>
       </c>
     </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F144" s="2">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="1">
         <v>58</v>
       </c>
-      <c r="H144" s="2">
+      <c r="D143" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F145" s="2">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="1">
         <v>56.1</v>
       </c>
-      <c r="H145" s="2">
+      <c r="D144" s="1">
         <v>55.2</v>
       </c>
     </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F146" s="2">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="1">
         <v>55.1</v>
       </c>
-      <c r="H146" s="2">
+      <c r="D145" s="1">
         <v>57.6</v>
       </c>
     </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F147" s="2">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="1">
         <v>58.3</v>
       </c>
-      <c r="H147" s="2">
+      <c r="D146" s="1">
         <v>51.2</v>
       </c>
     </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F148" s="2">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="1">
         <v>52.7</v>
       </c>
-      <c r="H148" s="2">
+      <c r="D147" s="1">
         <v>48.8</v>
       </c>
     </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F149" s="2">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="1">
         <v>52.4</v>
       </c>
-      <c r="H149" s="2">
+      <c r="D148" s="1">
         <v>51.7</v>
       </c>
     </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F150" s="2">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="1">
         <v>52.3</v>
       </c>
-      <c r="H150" s="2">
+      <c r="D149" s="1">
         <v>45.7</v>
       </c>
     </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F151" s="2">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="1">
         <v>51.4</v>
       </c>
-      <c r="H151" s="2">
+      <c r="D150" s="1">
         <v>50.7</v>
       </c>
     </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F152" s="2">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="1">
         <v>52.1</v>
       </c>
-      <c r="H152" s="2">
+      <c r="D151" s="1">
         <v>44.9</v>
       </c>
     </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F153" s="2">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="1">
         <v>49</v>
       </c>
-      <c r="H153" s="2">
+      <c r="D152" s="1">
         <v>49.8</v>
       </c>
     </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F154" s="2">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="1">
         <v>47.8</v>
       </c>
-      <c r="H154" s="2">
+      <c r="D153" s="1">
         <v>47.9</v>
       </c>
     </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F155" s="2">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="1">
         <v>48.5</v>
       </c>
-      <c r="H155" s="2">
+      <c r="D154" s="1">
         <v>44.1</v>
       </c>
     </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F156" s="2">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="1">
         <v>47.9</v>
       </c>
-      <c r="H156" s="2">
+      <c r="D155" s="1">
         <v>46.1</v>
       </c>
     </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F157" s="2">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="1">
         <v>46.4</v>
       </c>
-      <c r="H157" s="2">
+      <c r="D156" s="1">
         <v>40.4</v>
       </c>
     </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F158" s="2">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="1">
         <v>45.1</v>
       </c>
-      <c r="H158" s="2">
+      <c r="D157" s="1">
         <v>42.1</v>
       </c>
     </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F159" s="2">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="1">
         <v>45.9</v>
       </c>
-      <c r="H159" s="2">
+      <c r="D158" s="1">
         <v>43.9</v>
       </c>
     </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F160" s="2">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C159" s="1">
         <v>44.4</v>
       </c>
-      <c r="H160" s="2">
+      <c r="D159" s="1">
         <v>44.2</v>
       </c>
     </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F161" s="2">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C160" s="1">
         <v>44.3</v>
       </c>
-      <c r="H161" s="2">
+      <c r="D160" s="1">
         <v>38.5</v>
       </c>
     </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F162" s="2">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C161" s="1">
         <v>42.5</v>
       </c>
-      <c r="H162" s="2">
+      <c r="D161" s="1">
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F163" s="2">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" s="1">
         <v>43.6</v>
       </c>
-      <c r="H163" s="2">
+      <c r="D162" s="1">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F164" s="2">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="1">
         <v>42.8</v>
       </c>
-      <c r="H164" s="2">
+      <c r="D163" s="1">
         <v>41.8</v>
       </c>
     </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F165" s="2">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="1">
         <v>43.4</v>
       </c>
-      <c r="H165" s="2">
+      <c r="D164" s="1">
         <v>35.9</v>
       </c>
     </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F166" s="2">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" s="1">
         <v>46.4</v>
       </c>
-      <c r="H166" s="2">
+      <c r="D165" s="1">
         <v>37.1</v>
       </c>
     </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F167" s="2">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C166" s="1">
         <v>39.299999999999997</v>
       </c>
-      <c r="H167" s="2">
+      <c r="D166" s="1">
         <v>37.4</v>
       </c>
     </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F168" s="2">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="1">
         <v>41.6</v>
       </c>
-      <c r="H168" s="2">
+      <c r="D167" s="1">
         <v>37.5</v>
       </c>
     </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F169" s="2">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="1">
         <v>38.299999999999997</v>
       </c>
-      <c r="H169" s="2">
+      <c r="D168" s="1">
         <v>36.4</v>
       </c>
     </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F170" s="2">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C169" s="1">
         <v>38.4</v>
       </c>
-      <c r="H170" s="2">
+      <c r="D169" s="1">
         <v>38.1</v>
       </c>
     </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F171" s="2">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C170" s="1">
         <v>39.6</v>
       </c>
-      <c r="H171" s="2">
+      <c r="D170" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F172" s="2">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C171" s="1">
         <v>40.299999999999997</v>
       </c>
-      <c r="H172" s="2">
+      <c r="D171" s="1">
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F173" s="2">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C172" s="1">
         <v>43.4</v>
       </c>
-      <c r="H173" s="2">
+      <c r="D172" s="1">
         <v>40.1</v>
       </c>
     </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F174" s="2">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C173" s="1">
         <v>48.2</v>
       </c>
-      <c r="H174" s="2">
+      <c r="D173" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F175" s="2">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C174" s="1">
         <v>55.6</v>
       </c>
-      <c r="H175" s="2">
+      <c r="D174" s="1">
         <v>51.1</v>
       </c>
     </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F176" s="2">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C175" s="1">
         <v>52.8</v>
       </c>
-      <c r="H176" s="2">
+      <c r="D175" s="1">
         <v>42.3</v>
       </c>
     </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F177" s="2">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C176" s="1">
         <v>41.5</v>
       </c>
-      <c r="H177" s="2">
+      <c r="D176" s="1">
         <v>36.1</v>
       </c>
     </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F178" s="2">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C177" s="1">
         <v>36.9</v>
       </c>
-      <c r="H178" s="2">
+      <c r="D177" s="1">
         <v>30.6</v>
       </c>
     </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F179" s="2">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C178" s="1">
         <v>35.1</v>
       </c>
-      <c r="H179" s="2">
+      <c r="D178" s="1">
         <v>29.7</v>
       </c>
     </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F180" s="2">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C179" s="1">
         <v>34</v>
       </c>
-      <c r="H180" s="2">
+      <c r="D179" s="1">
         <v>32.6</v>
       </c>
     </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F181" s="2">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="H181" s="2">
+      <c r="D180" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F182" s="2">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C181" s="1">
         <v>34</v>
       </c>
-      <c r="H182" s="2">
+      <c r="D181" s="1">
         <v>29.4</v>
       </c>
     </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F183" s="2">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="1">
         <v>31.5</v>
       </c>
-      <c r="H183" s="2">
+      <c r="D182" s="1">
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F184" s="2">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C183" s="1">
         <v>33.1</v>
       </c>
-      <c r="H184" s="2">
+      <c r="D183" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F185" s="2">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C184" s="1">
         <v>28.1</v>
       </c>
-      <c r="H185" s="2">
+      <c r="D184" s="1">
         <v>29.2</v>
       </c>
     </row>
-    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F186" s="2">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C185" s="1">
         <v>29.5</v>
       </c>
-      <c r="H186" s="2">
+      <c r="D185" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F187" s="2">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C186" s="1">
         <v>30.2</v>
       </c>
-      <c r="H187" s="2">
+      <c r="D186" s="1">
         <v>29.7</v>
       </c>
     </row>
-    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F188" s="2">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C187" s="1">
         <v>28.9</v>
       </c>
-      <c r="H188" s="2">
+      <c r="D187" s="1">
         <v>31.6</v>
       </c>
     </row>
-    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F189" s="2">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C188" s="1">
         <v>29.2</v>
       </c>
-      <c r="H189" s="2">
+      <c r="D188" s="1">
         <v>29.3</v>
       </c>
     </row>
-    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F190" s="2">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C189" s="1">
         <v>29.4</v>
       </c>
-      <c r="H190" s="2">
+      <c r="D189" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F191" s="2">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C190" s="1">
         <v>29.4</v>
       </c>
-      <c r="H191" s="2">
+      <c r="D190" s="1">
         <v>29.9</v>
       </c>
     </row>
-    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F192" s="2">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C191" s="1">
         <v>30.3</v>
       </c>
-      <c r="H192" s="2">
+      <c r="D191" s="1">
         <v>30.5</v>
       </c>
     </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F193" s="2">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C192" s="1">
         <v>28.9</v>
       </c>
-      <c r="H193" s="2">
+      <c r="D192" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F194" s="2">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C193" s="1">
         <v>34</v>
       </c>
-      <c r="H194" s="2">
+      <c r="D193" s="1">
         <v>32.1</v>
       </c>
     </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F195" s="2">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C194" s="1">
         <v>32.799999999999997</v>
       </c>
-      <c r="H195" s="2">
+      <c r="D194" s="1">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F196" s="2">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C195" s="1">
         <v>35</v>
       </c>
-      <c r="H196" s="2">
+      <c r="D195" s="1">
         <v>41.7</v>
       </c>
     </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F197" s="2">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C196" s="1">
         <v>38.5</v>
       </c>
-      <c r="H197" s="2">
+      <c r="D196" s="1">
         <v>41.1</v>
       </c>
     </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F198" s="2">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C197" s="1">
         <v>44</v>
       </c>
-      <c r="H198" s="2">
+      <c r="D197" s="1">
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F199" s="2">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C198" s="1">
         <v>49.4</v>
       </c>
-      <c r="H199" s="2">
+      <c r="D198" s="1">
         <v>44.3</v>
       </c>
     </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F200" s="2">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C199" s="1">
         <v>60</v>
       </c>
-      <c r="H200" s="2">
+      <c r="D199" s="1">
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F201" s="2">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C200" s="1">
         <v>73.8</v>
       </c>
-      <c r="H201" s="2">
+      <c r="D200" s="1">
         <v>63.4</v>
       </c>
     </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F202" s="2">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C201" s="1">
         <v>51.3</v>
       </c>
-      <c r="H202" s="2">
+      <c r="D201" s="1">
         <v>45.4</v>
       </c>
     </row>
-    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F203" s="2">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C202" s="1">
         <v>33.5</v>
       </c>
-      <c r="H203" s="2">
+      <c r="D202" s="1">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F204" s="2">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C203" s="1">
         <v>29.4</v>
       </c>
-      <c r="H204" s="2">
+      <c r="D203" s="1">
         <v>28.9</v>
       </c>
     </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F205" s="2">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C204" s="1">
         <v>27</v>
       </c>
-      <c r="H205" s="2">
+      <c r="D204" s="1">
         <v>28.7</v>
       </c>
     </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F206" s="2">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C205" s="1">
         <v>27.5</v>
       </c>
-      <c r="H206" s="2">
+      <c r="D205" s="1">
         <v>27.4</v>
       </c>
     </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F207" s="2">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C206" s="1">
         <v>28</v>
       </c>
-      <c r="H207" s="2">
+      <c r="D206" s="1">
         <v>28.1</v>
       </c>
     </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F208" s="2">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C207" s="1">
         <v>26.2</v>
       </c>
-      <c r="H208" s="2">
+      <c r="D207" s="1">
         <v>25.9</v>
       </c>
     </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F209" s="2">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C208" s="1">
         <v>23.1</v>
       </c>
-      <c r="H209" s="2">
+      <c r="D208" s="1">
         <v>24.9</v>
       </c>
     </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F210" s="2">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C209" s="1">
         <v>20.7</v>
       </c>
-      <c r="H210" s="2">
+      <c r="D209" s="1">
         <v>22.4</v>
       </c>
     </row>
-    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F211" s="2">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C210" s="1">
         <v>26.2</v>
       </c>
-      <c r="H211" s="2">
+      <c r="D210" s="1">
         <v>23.7</v>
       </c>
     </row>
-    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F212" s="2">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C211" s="1">
         <v>24.5</v>
       </c>
-      <c r="H212" s="2">
+      <c r="D211" s="1">
         <v>23.8</v>
       </c>
     </row>
-    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F213" s="2">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C212" s="1">
         <v>23.6</v>
       </c>
-      <c r="H213" s="2">
+      <c r="D212" s="1">
         <v>21.7</v>
       </c>
     </row>
-    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F214" s="2">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C213" s="1">
         <v>24.8</v>
       </c>
-      <c r="H214" s="2">
+      <c r="D213" s="1">
         <v>20.5</v>
       </c>
     </row>
-    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F215" s="2">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C214" s="1">
         <v>22.3</v>
       </c>
-      <c r="H215" s="2">
+      <c r="D214" s="1">
         <v>21.1</v>
       </c>
     </row>
-    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F216" s="2">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="1">
         <v>22</v>
       </c>
-      <c r="H216" s="2">
+      <c r="D215" s="1">
         <v>18.2</v>
       </c>
     </row>
-    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F217" s="2">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C216" s="1">
         <v>24.1</v>
       </c>
-      <c r="H217" s="2">
+      <c r="D216" s="1">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F218" s="2">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C217" s="1">
         <v>21.5</v>
       </c>
-      <c r="H218" s="2">
+      <c r="D217" s="1">
         <v>22.2</v>
       </c>
     </row>
-    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F219" s="2">
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C218" s="1">
         <v>20.9</v>
       </c>
-      <c r="H219" s="2">
+      <c r="D218" s="1">
         <v>22.3</v>
       </c>
     </row>
-    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F220" s="2">
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C219" s="1">
         <v>24</v>
       </c>
-      <c r="H220" s="2">
+      <c r="D219" s="1">
         <v>20.2</v>
       </c>
     </row>
-    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F221" s="2">
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C220" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="H221" s="2">
+      <c r="D220" s="1">
         <v>22.2</v>
       </c>
     </row>
-    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F222" s="2">
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C221" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="H222" s="2">
+      <c r="D221" s="1">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F223" s="2">
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C222" s="1">
         <v>20.3</v>
       </c>
-      <c r="H223" s="2">
+      <c r="D222" s="1">
         <v>21.2</v>
       </c>
     </row>
-    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F224" s="2">
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C223" s="1">
         <v>20</v>
       </c>
-      <c r="H224" s="2">
+      <c r="D223" s="1">
         <v>18.7</v>
       </c>
     </row>
-    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F225" s="2">
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C224" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="H225" s="2">
+      <c r="D224" s="1">
         <v>19.3</v>
       </c>
     </row>
-    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F226" s="2">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C225" s="1">
         <v>18.3</v>
       </c>
-      <c r="H226" s="2">
+      <c r="D225" s="1">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F227" s="2">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C226" s="1">
         <v>19</v>
       </c>
-      <c r="H227" s="2">
+      <c r="D226" s="1">
         <v>20.3</v>
       </c>
     </row>
-    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F228" s="2">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C227" s="1">
         <v>20</v>
       </c>
-      <c r="H228" s="2">
+      <c r="D227" s="1">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F229" s="2">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C228" s="1">
         <v>17.3</v>
       </c>
-      <c r="H229" s="2">
+      <c r="D228" s="1">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F230" s="2">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C229" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="H230" s="2">
+      <c r="D229" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F231" s="2">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C230" s="1">
         <v>19</v>
       </c>
-      <c r="H231" s="2">
+      <c r="D230" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F232" s="2">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C231" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="H232" s="2">
+      <c r="D231" s="1">
         <v>16.2</v>
       </c>
     </row>
